--- a/data/premise-antibody-meta-data.xlsx
+++ b/data/premise-antibody-meta-data.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farmerr2/sandbox/premise-db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A6E4D-DE27-4D4F-B4F6-55BB83F7F8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8760E-6E97-4640-BD6B-5B507152860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="antibody-meta-data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateCount="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Project ID</t>
   </si>
@@ -121,7 +121,10 @@
     <t>000-SARS-CoV-2-NTD</t>
   </si>
   <si>
-    <t>001-CCHF-122</t>
+    <t>001-CCHF</t>
+  </si>
+  <si>
+    <t>CCHF nucleoprotein probe</t>
   </si>
 </sst>
 </file>
@@ -995,7 +998,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1011,7 @@
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -1198,7 +1201,9 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1210,6 +1215,9 @@
       </c>
       <c r="H6" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>

--- a/data/premise-antibody-meta-data.xlsx
+++ b/data/premise-antibody-meta-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farmerr2/sandbox/premise-db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8760E-6E97-4640-BD6B-5B507152860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCDB4C2-B483-854E-8AF4-8A96651BFEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>NTD</t>
   </si>
   <si>
-    <t>CCHF</t>
-  </si>
-  <si>
     <t>2 weeks post vaccination</t>
   </si>
   <si>
@@ -121,10 +118,13 @@
     <t>000-SARS-CoV-2-NTD</t>
   </si>
   <si>
-    <t>001-CCHF</t>
-  </si>
-  <si>
     <t>CCHF nucleoprotein probe</t>
+  </si>
+  <si>
+    <t>CCHFV</t>
+  </si>
+  <si>
+    <t>001-CCHFV-NP</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,13 +1024,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3">
         <v>13</v>
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
         <v>13</v>
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3">
         <v>13</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
         <v>13</v>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
@@ -1193,34 +1193,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
